--- a/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE60C538-4464-490A-B876-B2AF6609B9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D21A2F-9FAB-456A-96DD-BF55334B9101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7521E643-DF1E-451C-BE5B-A35F1F79A6AA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B7A9C5-A912-48B4-9CD2-58E35CDA0E47}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,39 @@
     <t>3,76%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,39 +172,6 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -259,6 +259,54 @@
     <t>96,21%</t>
   </si>
   <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
     <t>11,48%</t>
   </si>
   <si>
@@ -313,54 +361,6 @@
     <t>90,96%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
     <t>6,56%</t>
   </si>
   <si>
@@ -472,6 +472,60 @@
     <t>93,3%</t>
   </si>
   <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
     <t>7,32%</t>
   </si>
   <si>
@@ -518,60 +572,6 @@
   </si>
   <si>
     <t>92,52%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
   </si>
   <si>
     <t>11,68%</t>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D61726-E4F5-4DAE-A648-75A37503C3D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4517652E-05BA-43B9-A61B-8D2BEA14D609}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1290,10 +1290,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1305,34 +1305,34 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>44681</v>
+        <v>32061</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="N7" s="7">
-        <v>99736</v>
+        <v>74451</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,37 +1353,37 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1407,10 +1407,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1422,10 +1422,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1439,55 +1439,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>32061</v>
+        <v>44681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>147</v>
+      </c>
+      <c r="N10" s="7">
+        <v>99736</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>112</v>
-      </c>
-      <c r="N10" s="7">
-        <v>74451</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,34 +1508,34 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>642</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1547,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1562,10 +1562,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1577,10 +1577,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1763,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284492DD-1873-4C3C-A4E4-4D7DEFF6E548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C02243-0F11-4E46-B530-A6680B0A3668}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,49 +2036,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1967</v>
+        <v>1442</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7893</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5511</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>13</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9334</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="7">
-        <v>11</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7478</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,49 +2087,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>15159</v>
+        <v>35136</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7">
+        <v>20471</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="7">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7">
-        <v>21936</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>76</v>
+      </c>
+      <c r="N8" s="7">
+        <v>55608</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="7">
-        <v>52</v>
-      </c>
-      <c r="N8" s="7">
-        <v>37094</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,10 +2138,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>17126</v>
+        <v>36578</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2153,10 +2153,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>27447</v>
+        <v>28364</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2168,10 +2168,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N9" s="7">
-        <v>44572</v>
+        <v>64942</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2185,55 +2185,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1442</v>
+        <v>1967</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5511</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="7">
+      <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="7">
         <v>11</v>
       </c>
-      <c r="I10" s="7">
-        <v>7893</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>7478</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="7">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7">
-        <v>9334</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,25 +2242,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>35136</v>
+        <v>15159</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>20471</v>
+        <v>21936</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>101</v>
@@ -2272,10 +2272,10 @@
         <v>103</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>55608</v>
+        <v>37094</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>104</v>
@@ -2293,10 +2293,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
-        <v>36578</v>
+        <v>17126</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2308,10 +2308,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7">
-        <v>28364</v>
+        <v>27447</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2323,10 +2323,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N12" s="7">
-        <v>64942</v>
+        <v>44572</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2509,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A296A74-67D3-4AF6-A7EC-BA371DD95689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4866C-C2C8-4796-A477-E518EF428213}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,49 +2782,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>1252</v>
+        <v>3759</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4829</v>
+        <v>4274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>6082</v>
+        <v>8033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,49 +2833,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>15867</v>
+        <v>16861</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>15157</v>
+        <v>24026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>31023</v>
+        <v>40887</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>17119</v>
+        <v>20620</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2899,10 +2899,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>19986</v>
+        <v>28300</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2914,10 +2914,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>37105</v>
+        <v>48920</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2931,55 +2931,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3759</v>
+        <v>1252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>4274</v>
+        <v>4829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8033</v>
+        <v>6082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,25 +2988,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>16861</v>
+        <v>15867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>24026</v>
+        <v>15157</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>172</v>
@@ -3018,10 +3018,10 @@
         <v>174</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>40887</v>
+        <v>31023</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>175</v>
@@ -3039,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
-        <v>20620</v>
+        <v>17119</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3054,10 +3054,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>28300</v>
+        <v>19986</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3069,10 +3069,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>48920</v>
+        <v>37105</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D21A2F-9FAB-456A-96DD-BF55334B9101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11ECF0DB-7E8F-49F1-880D-ECFAF62A33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B7A9C5-A912-48B4-9CD2-58E35CDA0E47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{078AE620-8EDE-4A09-8C59-77CFC05688ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,100 +94,106 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -178,454 +202,490 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>96,49%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2015 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
 </sst>
 </file>
@@ -636,7 +696,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -732,39 +792,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -816,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -927,13 +987,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -942,6 +995,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1006,19 +1066,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4517652E-05BA-43B9-A61B-8D2BEA14D609}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF8554-51BD-41BB-9BC7-2C5794C390D2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1135,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>46474</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1150,85 +1230,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>47214</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>144</v>
-      </c>
-      <c r="N4" s="7">
-        <v>93688</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29655</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>46</v>
+      </c>
+      <c r="I5" s="7">
+        <v>29035</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>90</v>
+      </c>
+      <c r="N5" s="7">
+        <v>58690</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>707</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>707</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,153 +1317,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1349</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1349</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>48</v>
-      </c>
-      <c r="I7" s="7">
-        <v>32061</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>112</v>
-      </c>
-      <c r="N7" s="7">
-        <v>74451</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7">
+        <v>41872</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>140</v>
+      </c>
+      <c r="N8" s="7">
+        <v>92832</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>642</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>642</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,153 +1472,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>55055</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>44681</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>99736</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>23866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>22507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>46373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,153 +1627,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>143919</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>123956</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>403</v>
-      </c>
-      <c r="N13" s="7">
-        <v>267875</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>39438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>1349</v>
+        <v>30543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>1349</v>
+        <v>69981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,55 +1782,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1349</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1349</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>188</v>
+      </c>
+      <c r="I17" s="7">
+        <v>123956</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>403</v>
+      </c>
+      <c r="N17" s="7">
+        <v>267875</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>215</v>
+      </c>
+      <c r="D18" s="7">
+        <v>143919</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1763,8 +2004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C02243-0F11-4E46-B530-A6680B0A3668}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D78E5F-2E1E-4EEE-AE32-BA082C1F808A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1780,7 +2021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1881,100 +2122,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>3085</v>
+        <v>26654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>3929</v>
+        <v>25659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>7014</v>
+        <v>52313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>42158</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1254</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="7">
-        <v>57</v>
-      </c>
-      <c r="I5" s="7">
-        <v>38467</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1254</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="7">
-        <v>116</v>
-      </c>
-      <c r="N5" s="7">
-        <v>80625</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,153 +2224,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>45243</v>
+        <v>26654</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>42396</v>
+        <v>26913</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="N6" s="7">
-        <v>87639</v>
+        <v>53567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>1442</v>
+        <v>44461</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="7">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7">
+        <v>30458</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7893</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>104</v>
+      </c>
+      <c r="N7" s="7">
+        <v>74918</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="M7" s="7">
-        <v>13</v>
-      </c>
-      <c r="N7" s="7">
-        <v>9334</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>35136</v>
+        <v>4527</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6735</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7">
-        <v>20471</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11262</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="7">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7">
-        <v>55608</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,153 +2379,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D9" s="7">
-        <v>36578</v>
+        <v>48988</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>28364</v>
+        <v>37193</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>64942</v>
+        <v>86180</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>1967</v>
+        <v>13174</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10341</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="7">
+        <v>33</v>
+      </c>
+      <c r="N10" s="7">
+        <v>23515</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5511</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7478</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>15159</v>
+        <v>572</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4498</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5070</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="7">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21936</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="7">
-        <v>52</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37094</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,153 +2534,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>17126</v>
+        <v>13746</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7">
-        <v>27447</v>
+        <v>14839</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N12" s="7">
-        <v>44572</v>
+        <v>28585</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>6494</v>
+        <v>8165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>17333</v>
+        <v>14416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>23827</v>
+        <v>22580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>92453</v>
+        <v>1395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H14" s="7">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>80874</v>
+        <v>4845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>173326</v>
+        <v>6241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,55 +2689,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9560</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>27</v>
+      </c>
+      <c r="I15" s="7">
+        <v>19261</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>41</v>
+      </c>
+      <c r="N15" s="7">
+        <v>28821</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>129</v>
+      </c>
+      <c r="D16" s="7">
+        <v>92453</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="7">
+        <v>115</v>
+      </c>
+      <c r="I16" s="7">
+        <v>80874</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="7">
+        <v>244</v>
+      </c>
+      <c r="N16" s="7">
+        <v>173326</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6494</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="7">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7">
+        <v>17333</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="7">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7">
+        <v>23827</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>138</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>98947</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>140</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>98207</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>278</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>197153</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2509,8 +2911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4866C-C2C8-4796-A477-E518EF428213}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613A1FED-46FA-4ED5-B63C-58BE249DA27E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2526,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2627,100 +3029,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>2792</v>
+        <v>16016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>4873</v>
+        <v>15041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>7665</v>
+        <v>31058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>26253</v>
+        <v>740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>23235</v>
+        <v>1301</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>49488</v>
+        <v>2041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,153 +3131,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>29045</v>
+        <v>16756</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>28108</v>
+        <v>16342</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>57153</v>
+        <v>33099</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>3759</v>
+        <v>23349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>4274</v>
+        <v>22845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>8033</v>
+        <v>46194</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>16861</v>
+        <v>2696</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>24026</v>
+        <v>4790</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>40887</v>
+        <v>7486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,153 +3286,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>20620</v>
+        <v>26045</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>28300</v>
+        <v>27635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N9" s="7">
-        <v>48920</v>
+        <v>53680</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>1252</v>
+        <v>8594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>4829</v>
+        <v>19327</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>6082</v>
+        <v>27920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>15867</v>
+        <v>4367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3756</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="7">
         <v>11</v>
       </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15157</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" s="7">
-        <v>43</v>
-      </c>
       <c r="N11" s="7">
-        <v>31023</v>
+        <v>8124</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,153 +3441,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>17119</v>
+        <v>12961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>19986</v>
+        <v>23083</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>37105</v>
+        <v>36044</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>7803</v>
+        <v>11021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>13976</v>
+        <v>5205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>21779</v>
+        <v>16226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>58981</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>62418</v>
+        <v>4129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>121399</v>
+        <v>4129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,55 +3596,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11021</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7">
+        <v>9334</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>28</v>
+      </c>
+      <c r="N15" s="7">
+        <v>20355</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7">
+        <v>58981</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7">
+        <v>96</v>
+      </c>
+      <c r="I16" s="7">
+        <v>62418</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="7">
+        <v>183</v>
+      </c>
+      <c r="N16" s="7">
+        <v>121399</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7803</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="7">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13976</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="7">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21779</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>98</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>66784</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>116</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>76394</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>214</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>143178</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11ECF0DB-7E8F-49F1-880D-ECFAF62A33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{067A793B-E2C3-4024-8B3E-5DDEBE044384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{078AE620-8EDE-4A09-8C59-77CFC05688ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C2F7C6B-2943-4228-A98F-5B387982BC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -115,13 +115,13 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>11,12%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,5%</t>
+    <t>4,98%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -130,13 +130,13 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>89,13%</t>
+    <t>88,88%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,5%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -187,13 +187,13 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -202,13 +202,13 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>95,61%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -223,13 +223,13 @@
     <t>95,34%</t>
   </si>
   <si>
-    <t>83,78%</t>
+    <t>85,53%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>92,78%</t>
+    <t>91,77%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -238,358 +238,358 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>16,22%</t>
+    <t>14,47%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>7,22%</t>
+    <t>8,23%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>81,89%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>86,93%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>46,28%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>53,72%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>61,67%</t>
+    <t>55,17%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>38,33%</t>
+    <t>44,83%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2015 (Tasa respuesta: 10,07%)</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>73,4%</t>
+    <t>76,55%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>73,57%</t>
+    <t>72,72%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>26,6%</t>
+    <t>23,45%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>26,43%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -598,19 +598,19 @@
     <t>55,77%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -619,73 +619,67 @@
     <t>44,23%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>79,13%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF8554-51BD-41BB-9BC7-2C5794C390D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B945CB0-5A6E-4DBA-BBA3-4499168C9A32}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D78E5F-2E1E-4EEE-AE32-BA082C1F808A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4E29C7-0339-41DE-81E8-D48EC363E8BF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,7 +2453,7 @@
         <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2468,13 +2462,13 @@
         <v>23515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2504,13 +2498,13 @@
         <v>4498</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2519,13 +2513,13 @@
         <v>5070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,10 +2587,10 @@
         <v>8165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -2608,13 +2602,13 @@
         <v>14416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2623,13 +2617,13 @@
         <v>22580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2638,13 @@
         <v>1395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2659,13 +2653,13 @@
         <v>4845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2674,13 +2668,13 @@
         <v>6241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2742,13 @@
         <v>92453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -2763,13 +2757,13 @@
         <v>80874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -2778,13 +2772,13 @@
         <v>173326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2793,13 @@
         <v>6494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2814,13 +2808,13 @@
         <v>17333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2829,7 +2823,7 @@
         <v>23827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>131</v>
@@ -2911,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613A1FED-46FA-4ED5-B63C-58BE249DA27E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535CB361-95B7-4BB0-8981-6D87D3A76597}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,7 +3685,7 @@
         <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3700,13 @@
         <v>7803</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -3721,13 +3715,13 @@
         <v>13976</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3736,13 +3730,13 @@
         <v>21779</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067A793B-E2C3-4024-8B3E-5DDEBE044384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0325771D-408E-4230-AC00-B9D373BE7EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C2F7C6B-2943-4228-A98F-5B387982BC5F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A90D78A-2766-4EF7-A9DE-51F522B5AC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
@@ -94,121 +94,121 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,02%</t>
+    <t>94,37%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>2,74%</t>
   </si>
   <si>
+    <t>94,39%</t>
+  </si>
+  <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>97,26%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>1,83%</t>
   </si>
   <si>
+    <t>95,84%</t>
+  </si>
+  <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
     <t>98,17%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -217,262 +217,265 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
   </si>
   <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>91,77%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>8,23%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>86,93%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>56,57%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>74,46%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
     <t>98,22%</t>
   </si>
   <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>25,54%</t>
   </si>
   <si>
     <t>6,17%</t>
@@ -481,205 +484,208 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>15,3%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>79,13%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>20,87%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B945CB0-5A6E-4DBA-BBA3-4499168C9A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC98087C-E353-470D-AAD3-CC1F26583D47}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1260,10 +1266,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>29655</v>
+        <v>29035</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1275,10 +1281,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>29035</v>
+        <v>29655</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1311,25 +1317,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1364,31 +1370,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -1415,34 +1421,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41872</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>76</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>50960</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>64</v>
-      </c>
-      <c r="I8" s="7">
-        <v>41872</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>140</v>
@@ -1466,25 +1472,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1570,10 +1576,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>23866</v>
+        <v>22507</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1585,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>22507</v>
+        <v>23866</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1621,25 +1627,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1725,10 +1731,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>39438</v>
+        <v>30543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1740,10 +1746,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I14" s="7">
-        <v>30543</v>
+        <v>39438</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1776,25 +1782,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1829,31 +1835,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>49</v>
@@ -1880,34 +1886,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7">
+        <v>123956</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>215</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>143919</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>123956</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -1931,25 +1937,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1998,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4E29C7-0339-41DE-81E8-D48EC363E8BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7617C2-6913-41B7-8B75-F6B6399D093D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2116,34 +2122,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25659</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7">
         <v>37</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>26654</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7">
-        <v>38</v>
-      </c>
-      <c r="I4" s="7">
-        <v>25659</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -2167,31 +2173,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1254</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1254</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>66</v>
@@ -2218,25 +2224,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>26913</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>37</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>26654</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26913</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2271,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>44461</v>
+        <v>30458</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>69</v>
@@ -2286,10 +2292,10 @@
         <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>30458</v>
+        <v>44461</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>72</v>
@@ -2322,10 +2328,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>4527</v>
+        <v>6735</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>78</v>
@@ -2337,10 +2343,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>6735</v>
+        <v>4527</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>81</v>
@@ -2373,25 +2379,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7">
+        <v>37193</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>68</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>48988</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>52</v>
-      </c>
-      <c r="I9" s="7">
-        <v>37193</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2426,34 +2432,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10341</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>13174</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10341</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2477,31 +2483,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4498</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4498</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>97</v>
@@ -2528,25 +2534,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
+        <v>14839</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
         <v>13746</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14839</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2581,10 +2587,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>8165</v>
+        <v>14416</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>101</v>
@@ -2593,22 +2599,22 @@
         <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8165</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14416</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2632,31 +2638,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>1395</v>
+        <v>4845</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1395</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4845</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>113</v>
@@ -2683,25 +2689,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19261</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>9560</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>27</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19261</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2736,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>92453</v>
+        <v>80874</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>117</v>
@@ -2751,10 +2757,10 @@
         <v>119</v>
       </c>
       <c r="H16" s="7">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I16" s="7">
-        <v>80874</v>
+        <v>92453</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>120</v>
@@ -2772,13 +2778,13 @@
         <v>173326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,34 +2793,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>6494</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17333</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2823,13 +2829,13 @@
         <v>23827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,25 +2844,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7">
+        <v>98207</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>138</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>98947</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>140</v>
-      </c>
-      <c r="I18" s="7">
-        <v>98207</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2905,7 +2911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535CB361-95B7-4BB0-8981-6D87D3A76597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19B2E4-6F05-491A-8DCB-A4A7E978208A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2922,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3023,31 +3029,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>16016</v>
+        <v>15041</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>15041</v>
+        <v>16016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>17</v>
@@ -3059,13 +3065,13 @@
         <v>31058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,34 +3080,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>740</v>
+        <v>1301</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1301</v>
+        <v>740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3110,13 +3116,13 @@
         <v>2041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,25 +3131,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16342</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>27</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>16756</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7">
-        <v>16342</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3178,10 +3184,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>23349</v>
+        <v>22845</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>148</v>
@@ -3193,10 +3199,10 @@
         <v>150</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>22845</v>
+        <v>23349</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>151</v>
@@ -3229,10 +3235,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>2696</v>
+        <v>4790</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>157</v>
@@ -3244,10 +3250,10 @@
         <v>159</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>4790</v>
+        <v>2696</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>160</v>
@@ -3280,25 +3286,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>27635</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>38</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>26045</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>27635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3333,10 +3339,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>8594</v>
+        <v>19327</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>166</v>
@@ -3348,10 +3354,10 @@
         <v>168</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>19327</v>
+        <v>8594</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>169</v>
@@ -3384,10 +3390,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4367</v>
+        <v>3756</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>175</v>
@@ -3399,10 +3405,10 @@
         <v>177</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>3756</v>
+        <v>4367</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>178</v>
@@ -3435,25 +3441,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23083</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>12961</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>23083</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3488,34 +3494,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5205</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11021</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5205</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3539,31 +3545,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4129</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4129</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>194</v>
@@ -3590,25 +3596,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9334</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>15</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>11021</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9334</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3643,10 +3649,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>58981</v>
+        <v>62418</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>198</v>
@@ -3658,10 +3664,10 @@
         <v>200</v>
       </c>
       <c r="H16" s="7">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>62418</v>
+        <v>58981</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>201</v>
@@ -3685,7 +3691,7 @@
         <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,34 +3700,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7">
+        <v>13976</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>7803</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13976</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3730,13 +3736,13 @@
         <v>21779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,25 +3751,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>116</v>
+      </c>
+      <c r="D18" s="7">
+        <v>76394</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>98</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>66784</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>116</v>
-      </c>
-      <c r="I18" s="7">
-        <v>76394</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
